--- a/mcmaster_excel/Stainless_Steel_Tamper-Resistant_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Stainless_Steel_Tamper-Resistant_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,103 +434,159 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.213"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.059"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>91900A105</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$13.85</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>4-40</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -565,26 +621,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>91900A105</t>
+          <t>91900A106</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$13.85</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,21 +688,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>91900A106</t>
+          <t>91900A911</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -678,21 +750,29 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>91900A911</t>
+          <t>91900A169</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -732,21 +812,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>91900A169</t>
+          <t>91900A110</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -781,26 +869,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>91900A110</t>
+          <t>91900A111</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10.93</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -835,26 +931,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>91900A111</t>
+          <t>91900A912</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -864,17 +968,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -889,44 +993,96 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>91900A912</t>
+          <t>91900A143</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.262"</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.073"</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>91900A144</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>6-32</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -966,21 +1122,29 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>91900A143</t>
+          <t>91900A145</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1020,21 +1184,29 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>91900A144</t>
+          <t>91900A146</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1069,26 +1241,34 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>91900A145</t>
+          <t>91900A148</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>16.26</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1128,21 +1308,29 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>91900A146</t>
+          <t>91900A913</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.55</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1182,21 +1370,29 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>91900A148</t>
+          <t>91900A151</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1236,21 +1432,29 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>91900A913</t>
+          <t>91900A153</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1290,21 +1494,29 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>91900A151</t>
+          <t>91900A914</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12.21</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1314,17 +1526,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1339,26 +1551,34 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>91900A153</t>
+          <t>91900A200</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1368,17 +1588,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1398,39 +1618,91 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>91900A914</t>
+          <t>91900A171</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11.02</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>5/16"</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.312"</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.087"</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>T15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>91900A201</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>8-32</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1465,26 +1737,34 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>91900A200</t>
+          <t>91900A192</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>18.36</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>12.52</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1524,21 +1804,29 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>91900A171</t>
+          <t>91900A194</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1578,21 +1866,29 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>91900A201</t>
+          <t>91900A202</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1632,21 +1928,29 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>91900A192</t>
+          <t>91900A197</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12.52</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1686,21 +1990,29 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>91900A194</t>
+          <t>91900A199</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1740,21 +2052,29 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>91900A202</t>
+          <t>91900A172</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>14.51</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1794,21 +2114,29 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>91900A197</t>
+          <t>91900A203</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1843,26 +2171,34 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>91900A199</t>
+          <t>91900A915</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>16.74</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1897,26 +2233,34 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>91900A172</t>
+          <t>91900A204</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>12.64</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1926,17 +2270,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1956,21 +2300,29 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>91900A203</t>
+          <t>91900A162</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>19.42</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1980,17 +2332,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2005,26 +2357,34 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>91900A915</t>
+          <t>91900A163</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2034,17 +2394,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2059,44 +2419,96 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>91900A204</t>
+          <t>91900A242</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>5/8"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.361"</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.101"</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>91900A164</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2136,21 +2548,29 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>91900A162</t>
+          <t>91900A245</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2190,21 +2610,29 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>91900A163</t>
+          <t>91900A247</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2239,26 +2667,34 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>91900A242</t>
+          <t>91900A249</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>17.09</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2293,26 +2729,34 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>91900A164</t>
+          <t>91900A165</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2347,26 +2791,34 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>91900A245</t>
+          <t>91900A916</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>19.37</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2406,21 +2858,29 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>91900A247</t>
+          <t>91900A917</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>14.66</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2455,26 +2915,34 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>91900A249</t>
+          <t>91900A260</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>10.07</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2514,21 +2982,29 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>91900A165</t>
+          <t>91900A827</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2563,44 +3039,96 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>91900A916</t>
+          <t>91900A829</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>5/8"</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.361"</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.101"</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>91900A166</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>10-32</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2640,21 +3168,29 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>91900A917</t>
+          <t>91900A831</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>10.91</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2694,21 +3230,29 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>91900A260</t>
+          <t>91900A833</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>11.42</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2748,21 +3292,29 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>91900A827</t>
+          <t>91900A167</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2797,26 +3349,34 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>91900A829</t>
+          <t>91900A168</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>17.77</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2851,26 +3411,34 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>91900A166</t>
+          <t>91900A270</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2880,12 +3448,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.413"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.114"</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2905,26 +3473,34 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>91900A831</t>
+          <t>91900A918</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>20.30</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2934,12 +3510,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.413"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.114"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2959,26 +3535,34 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>91900A833</t>
+          <t>91900A919</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>20.40</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2988,17 +3572,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3013,26 +3597,34 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>91900A167</t>
+          <t>91900A535</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3042,17 +3634,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3072,21 +3664,29 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>91900A168</t>
+          <t>91900A536</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3096,17 +3696,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3126,39 +3726,91 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>91900A270</t>
+          <t>91900A537</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12-24</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>5/8"</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.437"</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>T27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>91900A161</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3168,17 +3820,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.413"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.114"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3198,21 +3850,29 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>91900A918</t>
+          <t>91900A540</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3222,17 +3882,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.413"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.114"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3252,21 +3912,29 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>91900A919</t>
+          <t>91900A542</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3301,17 +3969,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>91900A535</t>
+          <t>91900A544</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3319,12 +3987,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3364,12 +4036,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>91900A536</t>
+          <t>91900A546</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3377,12 +4049,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3422,12 +4098,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>91900A537</t>
+          <t>91900A550</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3435,12 +4111,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3475,17 +4155,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>91900A161</t>
+          <t>91900A549</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3493,12 +4173,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>2 1/4"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3538,12 +4222,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>91900A540</t>
+          <t>91900A921</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3551,12 +4235,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3596,12 +4284,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>91900A542</t>
+          <t>91900A551</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3609,12 +4297,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3654,12 +4346,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>91900A544</t>
+          <t>91900A552</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3667,12 +4359,16 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3712,25 +4408,29 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>91900A546</t>
+          <t>91900A570</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>1/4"-28</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3770,25 +4470,29 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>91900A550</t>
+          <t>91900A571</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>1/4"-28</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3823,30 +4527,34 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>91900A549</t>
+          <t>91900A572</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>1/4"-28</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2 1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3856,17 +4564,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3886,25 +4594,29 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>91900A921</t>
+          <t>91900A607</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3914,17 +4626,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3944,25 +4656,29 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>91900A551</t>
+          <t>91900A922</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3972,17 +4688,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3997,30 +4713,34 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>91900A552</t>
+          <t>91900A605</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>17.10</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4030,17 +4750,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4055,30 +4775,34 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>91900A570</t>
+          <t>91900A608</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4088,17 +4812,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4113,30 +4837,34 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>91900A571</t>
+          <t>91900A611</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4146,17 +4874,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4171,30 +4899,34 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>91900A572</t>
+          <t>91900A614</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4229,17 +4961,17 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>91900A607</t>
+          <t>91900A923</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4247,12 +4979,16 @@
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4287,17 +5023,17 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>91900A922</t>
+          <t>91900A615</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4305,12 +5041,16 @@
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4320,17 +5060,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4345,30 +5085,34 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>91900A605</t>
+          <t>91900A649</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>15.01</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4378,17 +5122,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4408,25 +5152,29 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>91900A608</t>
+          <t>91900A924</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4436,17 +5184,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4466,25 +5214,29 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>91900A611</t>
+          <t>91900A650</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4494,17 +5246,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4524,25 +5276,29 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>91900A614</t>
+          <t>91900A653</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4552,17 +5308,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4582,25 +5338,29 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>91900A923</t>
+          <t>91900A656</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4610,17 +5370,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4640,25 +5400,29 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>91900A615</t>
+          <t>91900A659</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4693,17 +5457,17 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>91900A649</t>
+          <t>91900A660</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>15.01</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4711,12 +5475,16 @@
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4756,12 +5524,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>91900A924</t>
+          <t>91900A925</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>16.14</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4769,355 +5537,11 @@
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>91900A650</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>91900A653</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>1 1/4"</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>91900A656</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>11.26</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>91900A659</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>91900A660</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>14.67</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2 1/2"</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>91900A925</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>16.14</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
